--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91CAEE2-799C-4A02-A48A-246D9673AFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8ECEED-E4A3-43E1-902C-710DDD29607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11196" yWindow="2496" windowWidth="23280" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>DATE</t>
+  </si>
   <si>
     <t>TYPE</t>
   </si>
@@ -31,25 +34,25 @@
     <t>PRICE</t>
   </si>
   <si>
-    <t>count</t>
+    <t>COUNT</t>
   </si>
   <si>
     <t>SUM</t>
   </si>
   <si>
+    <t>20.02.2022</t>
+  </si>
+  <si>
+    <t>DRINK</t>
+  </si>
+  <si>
     <t>FOOD</t>
   </si>
   <si>
+    <t>Kajzerka</t>
+  </si>
+  <si>
     <t>Black</t>
-  </si>
-  <si>
-    <t>DRINK</t>
-  </si>
-  <si>
-    <t>Kajzerka</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -412,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,44 +439,48 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\money\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8ECEED-E4A3-43E1-902C-710DDD29607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8441E5B4-F229-4CF1-8800-7FA16C9B8AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11196" yWindow="2496" windowWidth="23280" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -46,13 +46,22 @@
     <t>DRINK</t>
   </si>
   <si>
+    <t>Black</t>
+  </si>
+  <si>
     <t>FOOD</t>
   </si>
   <si>
     <t>Kajzerka</t>
   </si>
   <si>
-    <t>Black</t>
+    <t>21.02.2023</t>
+  </si>
+  <si>
+    <t>HOT DOG</t>
+  </si>
+  <si>
+    <t>FAST FOOD</t>
   </si>
 </sst>
 </file>
@@ -108,11 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -415,13 +425,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -451,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -468,10 +482,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -482,6 +496,111 @@
       <c r="F3">
         <v>2</v>
       </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>7.99</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.65</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>3.5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
